--- a/Final Exam Moed A - 2024 A - 26022024 w ANS.xlsx
+++ b/Final Exam Moed A - 2024 A - 26022024 w ANS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Colman AFM/2024 A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaytsaban/Documents/Colman AFM/2025 A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A832B-D1DB-3C48-A2A1-6BE67D13D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6545B2B-A798-FB4B-9FC6-7572322EBAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="29580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="הנחיות" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="305">
   <si>
     <t>מר תמיר זוילי, MA</t>
   </si>
@@ -397,15 +397,6 @@
     <t>פתרון שאלה 4:</t>
   </si>
   <si>
-    <t>שגויה. כדאיות פרויקט מחושבת על בסיס היוון תזרימי פרויקט במחיר ההון הכולל הרלוונטי.</t>
-  </si>
-  <si>
-    <t>שגויה. מחיר הון עצמי גבוה יותר משקף סיכון גבוה יותר / ריבית חסרת סיכון גבוהה יותר / תשואת</t>
-  </si>
-  <si>
-    <t>שוק גבוהה יותר. נתונים אלו אינם בהכרח קשורים לרווחיות של החברה עצמה.</t>
-  </si>
-  <si>
     <t>שגויה. רק רכיב המימון בהון זר (התחייבויות נושאות ריבית) מוביל ליצירת הוצאות מימון המזכות</t>
   </si>
   <si>
@@ -514,9 +505,6 @@
     <t>פתרון שאלה 3</t>
   </si>
   <si>
-    <t>מחיר המניה:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ps = </t>
   </si>
   <si>
@@ -544,9 +532,6 @@
     <t>דיבידנד בשנה הבאה:</t>
   </si>
   <si>
-    <t xml:space="preserve">Div = </t>
-  </si>
-  <si>
     <t>שיעור צמיחה מגולם במחיר:</t>
   </si>
   <si>
@@ -556,9 +541,6 @@
     <t>מחולץ מפתרון משוואה בדבר תמחור המניה ללא התאמות.</t>
   </si>
   <si>
-    <t>מחיר המניה</t>
-  </si>
-  <si>
     <t>תשואה נדרשת ע״י הבעלים</t>
   </si>
   <si>
@@ -571,9 +553,6 @@
     <t>דיבידנד צפוי בשנה הבאה</t>
   </si>
   <si>
-    <t>Div =</t>
-  </si>
-  <si>
     <t>שווי מניה ללא צמיחה:</t>
   </si>
   <si>
@@ -601,9 +580,6 @@
     <t>ואילך...</t>
   </si>
   <si>
-    <t>שיעור צמיחה כולל מסוף 2024 לסוף 2028:</t>
-  </si>
-  <si>
     <t>שיעור צמיחה במונחים שנתיים:</t>
   </si>
   <si>
@@ -628,7 +604,406 @@
     <t>תיאום ל-1.7.2024 - תשובה סופית:</t>
   </si>
   <si>
-    <t>הסברים נוספים:</t>
+    <t>מחיר המניה - נתון:</t>
+  </si>
+  <si>
+    <t>כשעוסקים רק במניות, לעתים סימנו זאת כ-r. בשאלות על מחיר ההון המשוקלל, סימנו זאת כ-kE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div = 80% * 80 = </t>
+  </si>
+  <si>
+    <t>הואיל וידוע:</t>
+  </si>
+  <si>
+    <t>Ps = Div / (r - g)</t>
+  </si>
+  <si>
+    <t>842.11 = 64 / (10% - g)</t>
+  </si>
+  <si>
+    <t>842.11 * (10% - g) = 64</t>
+  </si>
+  <si>
+    <t>10% - g = 64/842.11</t>
+  </si>
+  <si>
+    <t>g = 10% - 64/842.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g = </t>
+  </si>
+  <si>
+    <t>נציב את כל הנתונים במשוואת הפתרון:</t>
+  </si>
+  <si>
+    <t>ונקבל את התוצאה:</t>
+  </si>
+  <si>
+    <t>נפתח - כופלים ב-:</t>
+  </si>
+  <si>
+    <t>(10%-g)</t>
+  </si>
+  <si>
+    <t>נחלק את שני האגפים ב-842.11:</t>
+  </si>
+  <si>
+    <t>נעביר אגף את ה-g ואת ה-842.11:</t>
+  </si>
+  <si>
+    <t>הואיל והדיבידנד העתידי הקרוב ביותר הוא בדיוק בעוד שנה, יישום נוסחת התמחיר מוביל בדיוק לזמן 0 ללא צורך בהתאמה.</t>
+  </si>
+  <si>
+    <t>תזכורת: ה-PVGO, ראשי תיבות של Present Value Growth Opportunities, או: הערך הנוכחי של הזדמנויות הצמיחה,</t>
+  </si>
+  <si>
+    <t>הוא ההפרש הפשוט בין שני ערכים:</t>
+  </si>
+  <si>
+    <t>PVGO = Ps(Growth) - Ps(NoGrowth)</t>
+  </si>
+  <si>
+    <t>כאשר:</t>
+  </si>
+  <si>
+    <t>Ps(Grwoth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחיר המניה ה״נתון״ שמגלם את הצמיחה הצפויה. קיים להנחתנו בכל מקרה שבו שיעור הדיבידנד איננו 100%. </t>
+  </si>
+  <si>
+    <t>רציונל: כל רווח שלא מחלקים, משקיעים. הדבר תורם לצמיחה (Growth) ולמחיר המניה.</t>
+  </si>
+  <si>
+    <t>Ps(NoGrowth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחיר המניה ה״תיאורטי״ שהיה מתקיים אם החברה היתה חדלה מלהשקיע (לא מבצעת השקעות). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כדי לחשב מחיר זה, עלינו להתייחס לדיבידנד בגובה כל הרווח למניה, ולשיעור צמיחה 0. </t>
+  </si>
+  <si>
+    <t>Ps(Growth) = Div/(r - g)</t>
+  </si>
+  <si>
+    <t>Ps(No Growth) = [Div = EPS]/r</t>
+  </si>
+  <si>
+    <t>מחיר המניה עם צמיחה</t>
+  </si>
+  <si>
+    <t>Ps(Growth)</t>
+  </si>
+  <si>
+    <t>קיימת צמיחה, גם כי דרשו לחלץ שיעור צמיחה וגם כי שיעור הדיבידנד קטן מ-100% (75%).</t>
+  </si>
+  <si>
+    <t>לעתים מסומן kE, אבל בחישובי תמחור מניות, לעתים פשוט נסמנו כ-r</t>
+  </si>
+  <si>
+    <t>נתון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div = 280 * 75% = </t>
+  </si>
+  <si>
+    <t>1,680 = 210/(20% - g)</t>
+  </si>
+  <si>
+    <t>הדיבידנד הקרוב ביותר בזמן 1, אין צורך בהתאמות לנוסחה.</t>
+  </si>
+  <si>
+    <t>20% - g = 210/1,680</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>החלק הראשון של הנדרש בשאלה / בסעיף</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> דורש לחלץ את g (את שיעור הצמיחה), מתוך המניה הקיים כרגע ומגלם ציפיות צמיחה.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>החלק השני של הנדרש בשאלה / בסעיף</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> דורש לחשב את ה-PVGO:</t>
+    </r>
+  </si>
+  <si>
+    <t>כזכור לנו, ה-PVGO הוא ההפרש בין מחיר המניה הנתון עם צמיחה לבין מחיר המניה התיאורטי במצב בלי צמיחה.</t>
+  </si>
+  <si>
+    <t>כיצד נחשב את שווי המניה ללא צמיחה?</t>
+  </si>
+  <si>
+    <t>הדיבידנד שבמקרה שבו אין צמיחה שווה ל-EPS, ובמכנה אין צמיחה</t>
+  </si>
+  <si>
+    <t>כנתון, הרווח למניה EPS הצפוי הוא 280, והואיל ואין צמיחה, יישאר קבוע</t>
+  </si>
+  <si>
+    <t>Ps(No Growth) = 280/20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ps(Grwoth) - Ps(NoGrowth) = 1,680 - 1,400 = </t>
+  </si>
+  <si>
+    <t>רווח למניה EPS לשנת הדיווח שהסתיימה במועד זה</t>
+  </si>
+  <si>
+    <t>רציונל לפתרון:</t>
+  </si>
+  <si>
+    <t>נתון בסעיפי השאלה הקודמים, אך כאן - לא. מה שאנחנו בהחלט יודעים זה את הריבית חסרת הסיכון, תשואת השוק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">והביטא. נתונים אלו מאפשרים לנו להשתמש במודל ה-CAPM כדי לחשב את שיעור התשואה הנדרש. </t>
+  </si>
+  <si>
+    <t>kE = r = Rf + [E(M) - Rf] * beta</t>
+  </si>
+  <si>
+    <t>מקרא:</t>
+  </si>
+  <si>
+    <t>kE = r</t>
+  </si>
+  <si>
+    <t>שיעור התשואה הנדרש על ידי בעלי המניות</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>הריבית חסרת הסיכון</t>
+  </si>
+  <si>
+    <t>E(M)</t>
+  </si>
+  <si>
+    <t>תוחלת תשואת תיק השוק</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>ביטא = מדד הסיכון</t>
+  </si>
+  <si>
+    <t>בהצבה:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r = 5% + [12% - 5%] * 1.4 = </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t>מחיר ההון:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="David"/>
+      </rPr>
+      <t xml:space="preserve"> בתור התחלה, אנו רוצים לדעת מהי הריבית להיוון תזרימי המזומנים של הדיבידנדים (r או kE). שיעור תשואה זה היה</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">בשלב השני: נמיר את טבלת ה-EPS (טבלת נתוני הרווח למניה אשר נתונה) לטבלת תזרימי דיבידנד - Div. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">איך נעשה זאת? נתון שהחברה צופה כי תחלק 70% מרווחיה כדיבידנד. </t>
+  </si>
+  <si>
+    <t>שיעור חלוקה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סכומי הדיבידנד יחושבו בהתאם כמכפלת ה-EPS הצפוי על פי הנתונים ב-70%. </t>
+  </si>
+  <si>
+    <t>מחושב (מכפלה)</t>
+  </si>
+  <si>
+    <t>כיצד מחשבים את שיעור הצמיחה לאחר 2028, שחיוני לשם התייחסות לדיבידנדים משנת 2029 ואילך?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">על פי הנתון בשאלה, שיעור הצמיחה השנתי שמתבטא בנתונים מ-2024 עד 2028 הוא מייצג לטובת שיעור הצמיחה בעתיד (לאחר 2028). </t>
+  </si>
+  <si>
+    <t>חישוב שיעור צמיחה כולל מסוף 2024 לסוף 2028:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9/56 - 1 = </t>
+  </si>
+  <si>
+    <t>חישוב זה מבטא את סך הצמיחה לכל 4 השנים מתום 2024 עד תום 2028, על בסיס היחס בין הדיבידנד בשנה המאוחרת לדיבידנד בשנת הבסיס.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1 + 21.25%)^(1/4) - 1 = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חישוב זה מתקנן את שיעור הצמיחה ה-4 שנתי לערך שנתי ממוצע של g. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9 * (1 + 4.94%) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חישוב זה מחשב את הדיבידנד לשנת 2029, על פי הדיבידנד לשנת 2028 בתוספת שיעור הצמיחה המתקבע מפה ואילך 4.94%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div/(r - g) = 71.25 / (14.8% - 4.94%) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">חישוב זה לוקח את הדיבידנד לשנת 2029, והואיל ואחריו הצמיחה קבועה, ניתן ליישם לגביו את נוסחת גורדון (נוסחת היוון תזרים צומח). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הואיל ודיבידנד זה הוא ב-2029, התוצאה המתקבלת היא הערך הנוכחי של כל הדיבידנדים מ-2029 ואילך, במונחי שנת 2028. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לכן את תוצאת ההיוון הצבתי בשנת 2028 בטבלה לעיל. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">566.48 * (1 + 14.8%)^(6/12) = </t>
+  </si>
+  <si>
+    <t>היוון פשוט של דיבידנדים ב-NPV מוביל אחת אחורה ביחס לדיב׳ הראשון, כלומר שנה שלמה לפני 31/12/2024, ל-1.1.2024 וזה לא מה שביקשו</t>
+  </si>
+  <si>
+    <t>תיאום התוצאה מ-1.1.2024 ל-1.7.2024 כנדרש.</t>
+  </si>
+  <si>
+    <t>עברנו בכיתה - בשיעור של 27.1.2025</t>
+  </si>
+  <si>
+    <t>שגויה. כדאיות פרויקט מחושבת על בסיס היוון תזרימיו במחיר ההון הכולל הרלוונטי, ובשים לב לסיכון הפרויקט.</t>
+  </si>
+  <si>
+    <t>שגויה. מחיר הון עצמי (תשואה נדרשת ע״י משקיעים, ולא תשואה בפועל ע״י חברה!) גבוה יותר משקף סיכון גבוה יותר / ריבית חסרת סיכון גבוהה יותר / תשואת</t>
+  </si>
+  <si>
+    <t>שוק גבוהה יותר. נתונים אלו אינם בהכרח קשורים לרווחיות של החברה עצמה ובטח שלא לערכה (מחיר ההון הוא בכלל באחוזים!).</t>
+  </si>
+  <si>
+    <t>תזכורת קטנה - זה מחיר ההון המשוקלל:</t>
+  </si>
+  <si>
+    <t>כבר מהנוסחה אפשר לראות, שרכיב המימון בהון זר בלבד (המחובר השני) הוא ורק הוא המזכה במגן מס ולאור זאת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">המכפלה ב-1 בניכוי t. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחיר ההון הכולל נקרא גם WACC. הוא משקף את התשואה הכוללת הנדרשת על ידי מכלול </t>
+  </si>
+  <si>
+    <t xml:space="preserve">המשקיעים בחברה - הן המשקיעים בהון זר (חוב) והן המשקיעים בהון עצמי (מניות). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">דרישות התשואה מפרויקט נשענות על שיקלול דרישות התשואה של מקורות המימון הללו. </t>
+  </si>
+  <si>
+    <t>בהתאם, רק במצב שבו החברה ממומנת בהון עצמי בלבד נוכל לומר שפרויקט יהיה כדאי</t>
+  </si>
+  <si>
+    <t>רק אם השת״פ (IRR) המשקף את התשואה בפרויקט עצמו, גבוה ממחיר ההון העצמי.  זו לא הנחה</t>
+  </si>
+  <si>
+    <t>שהיא ברירת מחדל; ובכל מקרה שבו יש גם רכיבי מימון נוספים (הון זר) הדרישה היא IRR&gt;WACC.</t>
+  </si>
+  <si>
+    <t>כאשר הביטא עולה, מחיר ההון העצמי (התשואה הנדרשת על ידי בעלי המניות, באחוזים) עולה:</t>
+  </si>
+  <si>
+    <t>בנוסף ידוע, שהעלייה במחיר ההון העצמי משפיעה גם על מחיר ההון הכולל, דרך הנוסחה:</t>
+  </si>
+  <si>
+    <t>מדוע? כי מצד אחד Rf גדל בפני עצמו, ומצד שני, הערך השלילי של Rf בסוף הביטוי מוכפל בביטא.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואם היא (הביטא) קטנה מ-1, בסך הכל תחול עלייה במחיר ההון העצמי. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם הביטא קטנה מ-1, בסך הכל מחיר ההון העצמי יגדל. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם הביטא שווה ל-1, מחיר ההון העצמי לא ישתנה. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדוע? כי מצד אחד Rf גדל בפני עצמו, ומצד שני, הערך השלילי של Rf בסוף הביטוי מוכפל ב-1. </t>
+  </si>
+  <si>
+    <t>ואז אין השפעה כלל על מחיר ההון העצמי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם הביטא גדולה מ-1, בסך הכל, מחיר ההון העצמי יקטן. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדוע? כי מצד אחד Rf גדל בפני עצמו והוא חיובי, ומצד שני, הערך השלילי של Rf בסוף הביטוי מוכפל בערך גדול מ-1. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">במצב כזה, מחיר ההון העצמי דווקא יקטן. </t>
+  </si>
+  <si>
+    <t>המשמעות העולה מכך: סך ההשפעה על מחיר ההון העצמי ובהתאם על מחיר ההון הכולל כתוצאה</t>
+  </si>
+  <si>
+    <t>מעליית ריבית חסרת סיכון תלויה במידה רבה בביטא, ולא נוכל להכריע בדבר השפעתה ללא מידע</t>
+  </si>
+  <si>
+    <t>נוסף.</t>
+  </si>
+  <si>
+    <t>באופן כללי: כאשר דנים בכדאיות פרויקטים מנקודת ראות כלל החברה, אנו בוחנים זאת בהתאם למחיר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ההון הכולל של החברה (להוציא מקרים שבהם מדובר בפרויקטים חדשים ברמת סיכון שונה). </t>
+  </si>
+  <si>
+    <t>לעומת זאת, תמחור מניה הוא סוגיה הנשפטת לא מנקודת ראות כלל החברה, אלא מנקודת ראות בעלי</t>
+  </si>
+  <si>
+    <t>המניות בלבד. בהתאם, גם תזרימי המזומנים (דיבידנדים) וגם מחיר ההון (kE, מחיר ההון העצמי)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מוערכים מנקודת ראותם של בעלי המניות בלבד. </t>
+  </si>
+  <si>
+    <t>בקצרה: תזרימים כוללים לפרויקט = היוון במחיר ההון הכולל (WACC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תזרימים לבעלי מניות = היוון במחיר ההון ״של בעלי המניות״ = מחיר ההון העצמי (kE). </t>
   </si>
 </sst>
 </file>
@@ -641,7 +1016,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000_);\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -674,8 +1049,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="David"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,8 +1104,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -829,12 +1263,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -874,8 +1345,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -901,9 +1370,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,6 +1434,1181 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673509</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>413774</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>196644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1E3704-4622-8ECB-2047-EEFB9E807A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13553235161" y="7783870"/>
+          <a:ext cx="567813" cy="630903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483419</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12290</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>110613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2978A6C3-2BAC-C70A-462C-A2F9450C6E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13548609903" y="7697838"/>
+          <a:ext cx="4555613" cy="835743"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53129"/>
+            <a:gd name="adj2" fmla="val 4355"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" kern="1200"/>
+            <a:t>טיפ מהדוקטור: לעולם אל תניחו שמשוואת תמחור המניות מובילה לזמן 0 כנדרש! עליכם לבדוק מתי צפוי הדיבידנד הקרוב ביותר שאחריו הצמיחה קבועה, ותמיד תגיעו לנקודה אחת קודם. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="he-IL" sz="1100" kern="1200"/>
+            <a:t>כאן, הדיבידנד העתידי הקרוב ביותר הוא בזמן 1, לכן אין בעיה</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139290</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>131097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143387</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>106516</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542E634F-B161-7920-0022-1A02DA18FBDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13555160645" y="28956000"/>
+          <a:ext cx="4097" cy="385097"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>659580</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663677</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>90129</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1EF94F-6FDC-DAB5-3431-D1FD3F1ECCA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13556356903" y="28939613"/>
+          <a:ext cx="4097" cy="385097"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97945</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>150049</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2937393" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB41A8A4-A93E-B61A-F649-FC7F31BEFB95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13526676230" y="4224496"/>
+              <a:ext cx="2937393" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="1"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑊𝐴𝐶𝐶</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB41A8A4-A93E-B61A-F649-FC7F31BEFB95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13526676230" y="4224496"/>
+              <a:ext cx="2937393" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="1"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊𝐴𝐶𝐶=𝑘_𝐸∗𝐸/𝑉+𝑘_𝐷∗(1−𝑡)∗𝐷/𝑉</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>483622</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>483622</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173002</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6325B7-C1D9-0A91-1B3B-74E11E103AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13525252291" y="5311981"/>
+          <a:ext cx="0" cy="200526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39319</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>188731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>39319</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184798</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D912AC6-D78D-2EE0-B6F0-811FB4177DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13523219504" y="5323777"/>
+          <a:ext cx="0" cy="200526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78638</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2937393" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE3BF40-7C37-8D4D-9BC5-C4357CD41082}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13522641244" y="5827059"/>
+              <a:ext cx="2937393" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="1"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑊𝐴𝐶𝐶</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE3BF40-7C37-8D4D-9BC5-C4357CD41082}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13522641244" y="5827059"/>
+              <a:ext cx="2937393" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="r" rtl="1"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊𝐴𝐶𝐶=𝑘_𝐸∗𝐸/𝑉+𝑘_𝐷∗(1−𝑡)∗𝐷/𝑉</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAD8E58-348E-5C28-2ED0-98CB7A4E11DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13523636284" y="5830990"/>
+          <a:ext cx="0" cy="200526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235914</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>94365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235914</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90433</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713A792C-A1F1-E8A1-7CC7-9209C41850EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13523022909" y="5842786"/>
+          <a:ext cx="0" cy="200526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259504</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259504</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>153343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8486B4B5-9D89-6948-8E82-FCCE09349D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13522999319" y="6519072"/>
+          <a:ext cx="0" cy="200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39319</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>188731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39319</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>184798</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC73494F-B091-9647-929A-3FBF7F466D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13523219504" y="5323777"/>
+          <a:ext cx="0" cy="200526"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62910</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62910</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B3D45C-1AD5-FBF9-007C-31C20B28D132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13524021610" y="6526935"/>
+          <a:ext cx="0" cy="200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1428,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="254" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A16" zoomScale="254" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -2553,7 +4242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="161" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A64" zoomScale="262" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2608,12 +4297,12 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2632,46 +4321,46 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
-        <v>154</v>
+      <c r="A16" s="41" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
-        <v>155</v>
+      <c r="A17" s="41" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2703,7 +4392,7 @@
       <c r="C28" s="7">
         <v>44562</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="36">
         <f>-621000</f>
         <v>-621000</v>
       </c>
@@ -3112,7 +4801,7 @@
     </row>
     <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C54" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
@@ -3143,7 +4832,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H57" s="26"/>
     </row>
@@ -3174,7 +4863,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="17"/>
@@ -3205,8 +4894,8 @@
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="40" t="s">
-        <v>135</v>
+      <c r="F63" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="H63" s="17">
         <f>18000*3</f>
@@ -3411,7 +5100,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -3422,11 +5111,11 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C76" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="39">
+      <c r="F76" s="37">
         <f>(1+F75)^0.5-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -3434,7 +5123,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C77" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -3453,7 +5142,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="17"/>
@@ -3463,18 +5152,18 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C80" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="39">
+      <c r="F80" s="37">
         <v>0.03</v>
       </c>
       <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C81" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
@@ -3485,7 +5174,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C82" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -3502,7 +5191,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="17"/>
@@ -3532,7 +5221,7 @@
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
-      <c r="F86" s="40">
+      <c r="F86" s="38">
         <f>-F77</f>
         <v>-58404.65456755866</v>
       </c>
@@ -3696,48 +5385,48 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
-      <c r="F96" s="39"/>
+      <c r="F96" s="37"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C97" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
-      <c r="F97" s="39"/>
+      <c r="F97" s="37"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
-      <c r="F98" s="39"/>
+      <c r="F98" s="37"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="39"/>
+      <c r="F99" s="37"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
-      <c r="F100" s="39"/>
+      <c r="F100" s="37"/>
     </row>
     <row r="101" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C101" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
@@ -3748,7 +5437,7 @@
     </row>
     <row r="102" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C102" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
@@ -3761,7 +5450,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
-      <c r="F103" s="39"/>
+      <c r="F103" s="37"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
@@ -3776,20 +5465,20 @@
       <c r="H104" s="13"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="39" t="s">
         <v>70</v>
       </c>
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="41" t="s">
-        <v>154</v>
+      <c r="A106" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="H106" s="26"/>
     </row>
     <row r="107" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
-        <v>155</v>
+      <c r="A107" s="40" t="s">
+        <v>152</v>
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -3828,7 +5517,7 @@
       <c r="C111" s="7">
         <v>44562</v>
       </c>
-      <c r="F111" s="38"/>
+      <c r="F111" s="36"/>
       <c r="H111" s="17">
         <v>3</v>
       </c>
@@ -4231,7 +5920,7 @@
     </row>
     <row r="139" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C139" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F139" s="22">
         <f>NPV(F137,F112:F134)</f>
@@ -4240,16 +5929,16 @@
     </row>
     <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F140" s="44">
+        <v>147</v>
+      </c>
+      <c r="F140" s="42">
         <f>2.9808</f>
         <v>2.9807999999999999</v>
       </c>
     </row>
     <row r="141" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F141" s="32">
         <f>F140/F139-1</f>
@@ -4258,7 +5947,7 @@
     </row>
     <row r="142" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F142" s="1">
         <v>102</v>
@@ -4266,9 +5955,9 @@
     </row>
     <row r="143" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F143" s="46">
+        <v>150</v>
+      </c>
+      <c r="F143" s="44">
         <f>(1+F141)*F142</f>
         <v>109.31656091855815</v>
       </c>
@@ -4281,15 +5970,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="217" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView rightToLeft="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -4301,14 +5992,16 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4323,12 +6016,12 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4338,7 +6031,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4372,10 +6065,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="41"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
@@ -4384,11 +6077,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="7">
         <v>45657</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="47">
         <v>80</v>
       </c>
     </row>
@@ -4396,7 +6089,7 @@
       <c r="B19" s="7">
         <v>46022</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="47">
         <v>83</v>
       </c>
     </row>
@@ -4404,7 +6097,7 @@
       <c r="B20" s="7">
         <v>46387</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="47">
         <v>87</v>
       </c>
     </row>
@@ -4412,7 +6105,7 @@
       <c r="B21" s="7">
         <v>46752</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="47">
         <v>92</v>
       </c>
     </row>
@@ -4420,7 +6113,7 @@
       <c r="B22" s="7">
         <v>47118</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="47">
         <v>97</v>
       </c>
     </row>
@@ -4444,12 +6137,12 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4467,13 +6160,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H33" s="26"/>
     </row>
@@ -4491,40 +6184,43 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="C36" s="1">
         <v>842.11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C37" s="8">
         <v>0.1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C38" s="1">
         <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C39" s="8">
         <v>0.8</v>
@@ -4532,493 +6228,891 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1">
         <f>C38*C39</f>
         <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="47">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="45">
-        <f>C40/(C37-C42)</f>
+        <v>199</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="49">
+        <f>10%-64/842.11</f>
+        <v>2.4000427497595331E-2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="45">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="43">
+        <f>C40/(C37-C49)</f>
         <v>842.10526315789457</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="E51" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="H54" s="26"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="26"/>
-    </row>
-    <row r="51" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="H57" s="26"/>
+    </row>
+    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1680</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" s="1">
-        <v>280</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="1">
-        <f>C55*C56</f>
-        <v>210</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="47">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>170</v>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E62" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="51"/>
+      <c r="B66" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="1">
+        <v>280</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="1">
-        <f>C57/(C54-C59)</f>
+      <c r="C74" s="1">
+        <f>C72*C73</f>
+        <v>210</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E78" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D81" s="52">
+        <f>20%-210/1680</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="E81" s="53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="45">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="1">
+        <f>C74/(C71-C83)</f>
         <v>1680</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="E85" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E91" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="1">
+        <f>C72/C71</f>
+        <v>1400</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="46">
+        <f>C85-C94</f>
+        <v>280</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="H99" s="26"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="39"/>
+      <c r="B100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H100" s="26"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="39"/>
+      <c r="B101" s="7">
+        <v>45657</v>
+      </c>
+      <c r="C101" s="47">
+        <v>80</v>
+      </c>
+      <c r="H101" s="26"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="25"/>
+      <c r="B102" s="7">
+        <v>46022</v>
+      </c>
+      <c r="C102" s="47">
+        <v>83</v>
+      </c>
+      <c r="H102" s="26"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="25"/>
+      <c r="B103" s="7">
+        <v>46387</v>
+      </c>
+      <c r="C103" s="47">
+        <v>87</v>
+      </c>
+      <c r="H103" s="26"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="25"/>
+      <c r="B104" s="7">
+        <v>46752</v>
+      </c>
+      <c r="C104" s="47">
+        <v>92</v>
+      </c>
+      <c r="H104" s="26"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="25"/>
+      <c r="B105" s="7">
+        <v>47118</v>
+      </c>
+      <c r="C105" s="47">
+        <v>97</v>
+      </c>
+      <c r="H105" s="26"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="25"/>
+      <c r="C106" s="6"/>
+      <c r="H106" s="26"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" s="26"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H108" s="26"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109" s="26"/>
+    </row>
+    <row r="110" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C63" s="1">
-        <f>C55/C54</f>
-        <v>1400</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="48">
-        <f>C61-C63</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="H68" s="26"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H69" s="26"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="7">
-        <v>45657</v>
-      </c>
-      <c r="C70" s="49">
-        <v>80</v>
-      </c>
-      <c r="H70" s="26"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="25"/>
-      <c r="B71" s="7">
-        <v>46022</v>
-      </c>
-      <c r="C71" s="49">
-        <v>83</v>
-      </c>
-      <c r="H71" s="26"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="25"/>
-      <c r="B72" s="7">
-        <v>46387</v>
-      </c>
-      <c r="C72" s="49">
-        <v>87</v>
-      </c>
-      <c r="H72" s="26"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="7">
-        <v>46752</v>
-      </c>
-      <c r="C73" s="49">
-        <v>92</v>
-      </c>
-      <c r="H73" s="26"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="25"/>
-      <c r="B74" s="7">
-        <v>47118</v>
-      </c>
-      <c r="C74" s="49">
-        <v>97</v>
-      </c>
-      <c r="H74" s="26"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="C75" s="6"/>
-      <c r="H75" s="26"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H76" s="26"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H77" s="26"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H78" s="26"/>
-    </row>
-    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" s="20">
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E118" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" s="52">
         <f>5%+(12%-5%)*1.4</f>
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E128" s="54">
+        <f>5%+(12%-5%)*1.4</f>
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D134" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E134" s="55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="7">
+      <c r="C135" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E135" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="F135" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="G135" s="63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="7">
         <v>45657</v>
       </c>
-      <c r="C84" s="49">
+      <c r="C136" s="47">
         <v>80</v>
       </c>
-      <c r="D84" s="49">
-        <f>C84*70%</f>
+      <c r="D136" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="E136" s="47">
+        <f>C136*D136</f>
         <v>56</v>
       </c>
-      <c r="F84" s="1">
-        <f>D84</f>
+      <c r="F136" s="56"/>
+      <c r="G136" s="64">
+        <f>E136</f>
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="7">
         <v>46022</v>
       </c>
-      <c r="C85" s="49">
+      <c r="C137" s="47">
         <v>83</v>
       </c>
-      <c r="D85" s="49">
-        <f t="shared" ref="D85:D88" si="0">C85*70%</f>
+      <c r="D137" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="E137" s="47">
+        <f>C137*D137</f>
         <v>58.099999999999994</v>
       </c>
-      <c r="F85" s="1">
-        <f>D85</f>
+      <c r="F137" s="56"/>
+      <c r="G137" s="64">
+        <f>E137</f>
         <v>58.099999999999994</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="7">
         <v>46387</v>
       </c>
-      <c r="C86" s="49">
+      <c r="C138" s="47">
         <v>87</v>
       </c>
-      <c r="D86" s="49">
-        <f t="shared" si="0"/>
+      <c r="D138" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="E138" s="47">
+        <f t="shared" ref="E138:E140" si="0">C138*D138</f>
         <v>60.9</v>
       </c>
-      <c r="F86" s="1">
-        <f>D86</f>
+      <c r="F138" s="56"/>
+      <c r="G138" s="64">
+        <f>E138</f>
         <v>60.9</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="7">
         <v>46752</v>
       </c>
-      <c r="C87" s="49">
+      <c r="C139" s="47">
         <v>92</v>
       </c>
-      <c r="D87" s="49">
+      <c r="D139" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="E139" s="47">
         <f t="shared" si="0"/>
         <v>64.399999999999991</v>
       </c>
-      <c r="F87" s="1">
-        <f>D87</f>
+      <c r="F139" s="56"/>
+      <c r="G139" s="64">
+        <f>E139</f>
         <v>64.399999999999991</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="7">
+    <row r="140" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="7">
         <v>47118</v>
       </c>
-      <c r="C88" s="49">
+      <c r="C140" s="47">
         <v>97</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D140" s="57">
+        <v>0.7</v>
+      </c>
+      <c r="E140" s="47">
         <f t="shared" si="0"/>
         <v>67.899999999999991</v>
       </c>
-      <c r="E88" s="45">
-        <f>E100/(E81-E98)</f>
+      <c r="F140" s="62">
+        <f>F159/(E128-F155)</f>
         <v>722.26050252022594</v>
       </c>
-      <c r="F88" s="45">
-        <f>D88+E88</f>
+      <c r="G140" s="65">
+        <f>E140+F140</f>
         <v>790.16050252022592</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="7">
         <v>47483</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C141" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" s="58">
+        <f>F159</f>
+        <v>71.250876478236108</v>
+      </c>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F142" s="56"/>
+      <c r="G142" s="56"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F144" s="56"/>
+      <c r="G144" s="56"/>
+    </row>
+    <row r="145" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F91" s="45">
-        <f>NPV(E81,F84:F88)</f>
+      <c r="F145" s="56"/>
+      <c r="G145" s="59">
+        <f>NPV(E128,G136:G140)</f>
         <v>566.47959573071319</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" s="46">
-        <f>F91*(1+E81)^0.5</f>
+      <c r="H145" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="66"/>
+      <c r="G146" s="67">
+        <f>G145*(1+E128)^0.5</f>
         <v>606.95321398882015</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E96" s="10">
-        <f>D88/D84-1</f>
+      <c r="I146" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F151" s="10">
+        <f>E140/E136-1</f>
         <v>0.21249999999999991</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E97" s="10"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" s="10">
-        <f>(1+E96)^0.25-1</f>
+      <c r="H151" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F152" s="10"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F153" s="10"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F155" s="10">
+        <f>(1+F151)^0.25-1</f>
         <v>4.9350169046187276E-2</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E100" s="45">
-        <f>D88*(1+E98)</f>
+      <c r="H155" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E157" s="10"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F159" s="43">
+        <f>E140*(1+F155)</f>
         <v>71.250876478236108</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E102" s="45">
-        <f>E100/(E81-E98)</f>
+      <c r="H159" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F163" s="61">
+        <f>F159/(E128-F155)</f>
         <v>722.26050252022594</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="234" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView rightToLeft="1" zoomScale="309" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5034,7 +7128,9 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
@@ -5070,7 +7166,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5084,82 +7180,102 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:8" s="60" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B14" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+    </row>
+    <row r="16" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="68"/>
+    </row>
+    <row r="17" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+    <row r="26" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
+    <row r="27" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="252" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H18"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="323" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5175,7 +7291,9 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
@@ -5218,56 +7336,346 @@
       <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="70" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+    </row>
+    <row r="14" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="68"/>
+    </row>
+    <row r="15" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="60" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B24" s="60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="25" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B32" s="60" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="60"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+    </row>
+    <row r="49" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B50" s="60" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>